--- a/data/trans_camb/POLIPATOLOGIA_Lim_5-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/POLIPATOLOGIA_Lim_5-Estudios-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -63,13 +63,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -504,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,9 +516,6 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
-    <col width="14" customWidth="1" min="9" max="9"/>
-    <col width="14" customWidth="1" min="10" max="10"/>
-    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -541,68 +531,50 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2012/2007</t>
+          <t>2016/2012</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2016/2007</t>
+          <t>2023/2012</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2023/2007</t>
+          <t>2016/2012</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2012/2007</t>
+          <t>2023/2012</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2016/2007</t>
+          <t>2016/2012</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2023/2007</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>2012/2007</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>2016/2007</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>2023/2007</t>
+          <t>2023/2012</t>
         </is>
       </c>
     </row>
@@ -615,9 +587,6 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
-      <c r="I3" s="2" t="n"/>
-      <c r="J3" s="2" t="n"/>
-      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>9,26</t>
+          <t>-1,36</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>7,9</t>
+          <t>11,2</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>20,46</t>
+          <t>0,68</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>19,05</t>
+          <t>16,13</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>19,72</t>
+          <t>-0,3</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>35,18</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>14,92</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>14,63</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>29,21</t>
+          <t>14,29</t>
         </is>
       </c>
     </row>
@@ -685,47 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>7,49; 11,28</t>
+          <t>-4,03; 1,21</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>6,32; 9,9</t>
+          <t>7,8; 14,88</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>17,66; 23,94</t>
+          <t>-2,73; 4,19</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>16,98; 21,32</t>
+          <t>12,53; 19,44</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>17,05; 22,52</t>
+          <t>-2,53; 2,02</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>32,81; 37,9</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>13,44; 16,73</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>12,87; 16,4</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>27,16; 31,43</t>
+          <t>11,81; 17,07</t>
         </is>
       </c>
     </row>
@@ -738,47 +677,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-14,67%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>120,96%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>3,55%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>84,68%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-2,0%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
+          <t>95,77%</t>
         </is>
       </c>
     </row>
@@ -791,47 +715,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,96; 16,32</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>73,44; 189,88</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,58; 23,3</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>59,22; 111,19</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,08; 14,59</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+          <t>73,87; 124,06</t>
         </is>
       </c>
     </row>
@@ -848,47 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,32</t>
+          <t>0,4</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,71</t>
+          <t>3,43</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>4,74</t>
+          <t>1,62</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>3,61</t>
+          <t>5,32</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>5,24</t>
+          <t>1,04</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>8,94</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>2,4</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>3,44</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>6,81</t>
+          <t>4,41</t>
         </is>
       </c>
     </row>
@@ -901,47 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,82; 1,86</t>
+          <t>-0,32; 1,25</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,16; 2,38</t>
+          <t>1,86; 4,6</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,35; 5,78</t>
+          <t>0,23; 3,04</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,71; 4,66</t>
+          <t>2,82; 7,18</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,26; 6,34</t>
+          <t>0,26; 1,8</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>6,05; 10,34</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>1,9; 2,94</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>2,82; 4,08</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>5,53; 7,74</t>
+          <t>2,82; 5,48</t>
         </is>
       </c>
     </row>
@@ -954,47 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>30,13%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>260,59%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>44,95%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>147,28%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>43,14%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
+          <t>183,87%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,86; 123,96</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>118,37; 488,1</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,23; 98,58</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>72,81; 242,82</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,23; 87,29</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+          <t>113,14; 273,98</t>
         </is>
       </c>
     </row>
@@ -1064,47 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,29</t>
+          <t>0,71</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>2,0</t>
+          <t>1,17</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>2,46</t>
+          <t>0,42</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>2,55</t>
+          <t>5,1</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>2,97</t>
+          <t>0,58</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>7,65</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>1,9</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>2,49</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>5,08</t>
+          <t>3,18</t>
         </is>
       </c>
     </row>
@@ -1117,47 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,41; 3,74</t>
+          <t>-1,36; 2,49</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,95; 3,74</t>
+          <t>-0,71; 2,62</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,52; 4,0</t>
+          <t>-2,02; 2,4</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,41; 4,79</t>
+          <t>2,85; 7,49</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,66; 5,09</t>
+          <t>-0,87; 1,97</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>6,17; 9,47</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>1,04; 3,13</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>1,53; 3,65</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>4,14; 6,13</t>
+          <t>1,43; 4,6</t>
         </is>
       </c>
     </row>
@@ -1170,47 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>55,0%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>90,66%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>16,5%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>200,01%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>30,52%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
+          <t>166,8%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-63,84; 554,38</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,97; 755,58</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-52,9; 165,32</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>54,71; 566,23</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,18; 169,64</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+          <t>44,74; 430,25</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>3,58</t>
+          <t>-0,44</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>3,14</t>
+          <t>3,08</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>6,66</t>
+          <t>-0,32</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>9,29</t>
+          <t>4,84</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>8,96</t>
+          <t>-0,37</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>14,13</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>6,49</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>6,12</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>10,5</t>
+          <t>4,01</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,95; 4,29</t>
+          <t>-1,43; 0,34</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,64; 3,78</t>
+          <t>1,44; 4,21</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>5,28; 7,6</t>
+          <t>-1,68; 1,02</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>8,37; 10,31</t>
+          <t>2,05; 6,42</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>8,01; 10,05</t>
+          <t>-1,2; 0,53</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>11,08; 15,43</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>5,88; 7,12</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>5,57; 6,74</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
-        <is>
-          <t>9,04; 11,43</t>
+          <t>2,52; 5,07</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-12,18%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>86,23%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-3,46%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>52,16%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-5,68%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="I18" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="J18" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="K18" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
+          <t>61,9%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,18; 11,32</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>36,94; 129,45</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,68; 11,72</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>23,2; 74,16</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,83; 8,69</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+          <t>37,81; 83,34</t>
         </is>
       </c>
     </row>
@@ -1493,11 +1222,11 @@
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
